--- a/Program/Other/Sharepoint上傳用/測試FT/L5/L5961 L5601/FT_L5961 L5601.xlsx
+++ b/Program/Other/Sharepoint上傳用/測試FT/L5/L5961 L5601/FT_L5961 L5601.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\測試FT\L5\L5961 L5601\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C74313F-463B-4417-BAA6-008079ECDB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C411D883-BA03-4853-8003-C1297C748193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="195">
   <si>
     <t>目錄名稱</t>
   </si>
@@ -164,13 +164,6 @@
   </si>
   <si>
     <t>1.限輸入代碼,檢核條件：依選單/V(H)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.62.docx</t>
-  </si>
-  <si>
-    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.62.docx</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -740,6 +733,9 @@
   <si>
     <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.63.docx</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.65.DOCX</t>
   </si>
 </sst>
 </file>
@@ -1293,8 +1289,8 @@
   </sheetPr>
   <dimension ref="A1:Q154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q50" sqref="Q50"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -1405,13 +1401,13 @@
         <v>17</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q2" s="11">
-        <v>44571</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1450,13 +1446,13 @@
         <v>17</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q3" s="11">
-        <v>44571</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1476,7 +1472,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5" t="s">
@@ -1495,13 +1491,13 @@
         <v>16</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q4" s="11">
-        <v>44571</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1540,13 +1536,13 @@
         <v>16</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q5" s="11">
-        <v>44571</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1563,13 +1559,13 @@
         <v>34</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>12</v>
@@ -1587,13 +1583,13 @@
         <v>16</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q6" s="11">
-        <v>44571</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1610,13 +1606,13 @@
         <v>34</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>12</v>
@@ -1634,13 +1630,13 @@
         <v>16</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q7" s="11">
-        <v>44571</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1657,10 +1653,10 @@
         <v>34</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>28</v>
@@ -1681,13 +1677,13 @@
         <v>16</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q8" s="11">
-        <v>44571</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="4" customFormat="1" ht="81" x14ac:dyDescent="0.2">
@@ -1704,10 +1700,10 @@
         <v>34</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>28</v>
@@ -1728,7 +1724,7 @@
         <v>16</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1736,7 +1732,7 @@
         <v>23</v>
       </c>
       <c r="Q9" s="11">
-        <v>44571</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="4" customFormat="1" ht="81" x14ac:dyDescent="0.2">
@@ -1753,10 +1749,10 @@
         <v>34</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>28</v>
@@ -1777,7 +1773,7 @@
         <v>16</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1785,7 +1781,7 @@
         <v>23</v>
       </c>
       <c r="Q10" s="11">
-        <v>44571</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1802,10 +1798,10 @@
         <v>34</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>28</v>
@@ -1826,13 +1822,13 @@
         <v>16</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q11" s="11">
-        <v>44571</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1849,13 +1845,13 @@
         <v>34</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>12</v>
@@ -1873,13 +1869,13 @@
         <v>16</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q12" s="11">
-        <v>44571</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1896,13 +1892,13 @@
         <v>34</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>12</v>
@@ -1920,13 +1916,13 @@
         <v>16</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q13" s="11">
-        <v>44571</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1943,13 +1939,13 @@
         <v>34</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>12</v>
@@ -1967,13 +1963,13 @@
         <v>16</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q14" s="11">
-        <v>44571</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1990,13 +1986,13 @@
         <v>34</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>12</v>
@@ -2014,13 +2010,13 @@
         <v>16</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q15" s="11">
-        <v>44571</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2037,13 +2033,13 @@
         <v>34</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>12</v>
@@ -2061,13 +2057,13 @@
         <v>16</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q16" s="11">
-        <v>44571</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2084,13 +2080,13 @@
         <v>34</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>12</v>
@@ -2108,13 +2104,13 @@
         <v>16</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q17" s="11">
-        <v>44571</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2131,13 +2127,13 @@
         <v>34</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>12</v>
@@ -2155,13 +2151,13 @@
         <v>16</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q18" s="11">
-        <v>44571</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2178,13 +2174,13 @@
         <v>34</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>12</v>
@@ -2202,13 +2198,13 @@
         <v>16</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q19" s="11">
-        <v>44571</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2225,13 +2221,13 @@
         <v>34</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>12</v>
@@ -2249,13 +2245,13 @@
         <v>16</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q20" s="11">
-        <v>44571</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2272,13 +2268,13 @@
         <v>34</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>12</v>
@@ -2296,7 +2292,7 @@
         <v>16</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
@@ -2304,30 +2300,30 @@
         <v>23</v>
       </c>
       <c r="Q21" s="12">
-        <v>44571</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="D22" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>81</v>
-      </c>
       <c r="G22" s="24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>12</v>
@@ -2345,7 +2341,7 @@
         <v>16</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>23</v>
@@ -2356,25 +2352,25 @@
     </row>
     <row r="23" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>77</v>
-      </c>
       <c r="D23" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>12</v>
@@ -2392,7 +2388,7 @@
         <v>16</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>23</v>
@@ -2403,25 +2399,25 @@
     </row>
     <row r="24" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>77</v>
-      </c>
       <c r="D24" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>12</v>
@@ -2439,7 +2435,7 @@
         <v>16</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>23</v>
@@ -2450,25 +2446,25 @@
     </row>
     <row r="25" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>12</v>
@@ -2486,7 +2482,7 @@
         <v>16</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>23</v>
@@ -2497,25 +2493,25 @@
     </row>
     <row r="26" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>12</v>
@@ -2533,7 +2529,7 @@
         <v>16</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>23</v>
@@ -2544,25 +2540,25 @@
     </row>
     <row r="27" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>12</v>
@@ -2580,7 +2576,7 @@
         <v>16</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>23</v>
@@ -2591,25 +2587,25 @@
     </row>
     <row r="28" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>12</v>
@@ -2627,7 +2623,7 @@
         <v>16</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>23</v>
@@ -2638,25 +2634,25 @@
     </row>
     <row r="29" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>12</v>
@@ -2674,7 +2670,7 @@
         <v>16</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>23</v>
@@ -2685,25 +2681,25 @@
     </row>
     <row r="30" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>12</v>
@@ -2721,7 +2717,7 @@
         <v>16</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>23</v>
@@ -2732,25 +2728,25 @@
     </row>
     <row r="31" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>12</v>
@@ -2768,7 +2764,7 @@
         <v>16</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>23</v>
@@ -2779,25 +2775,25 @@
     </row>
     <row r="32" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>12</v>
@@ -2815,7 +2811,7 @@
         <v>16</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>23</v>
@@ -2826,25 +2822,25 @@
     </row>
     <row r="33" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>12</v>
@@ -2862,7 +2858,7 @@
         <v>16</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>23</v>
@@ -2873,25 +2869,25 @@
     </row>
     <row r="34" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>12</v>
@@ -2909,7 +2905,7 @@
         <v>16</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P34" s="3" t="s">
         <v>23</v>
@@ -2920,25 +2916,25 @@
     </row>
     <row r="35" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>12</v>
@@ -2956,7 +2952,7 @@
         <v>16</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>23</v>
@@ -2967,25 +2963,25 @@
     </row>
     <row r="36" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>12</v>
@@ -3003,7 +2999,7 @@
         <v>16</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P36" s="3" t="s">
         <v>23</v>
@@ -3014,25 +3010,25 @@
     </row>
     <row r="37" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>12</v>
@@ -3050,7 +3046,7 @@
         <v>16</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P37" s="3" t="s">
         <v>23</v>
@@ -3061,25 +3057,25 @@
     </row>
     <row r="38" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>12</v>
@@ -3097,7 +3093,7 @@
         <v>16</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P38" s="3" t="s">
         <v>23</v>
@@ -3108,25 +3104,25 @@
     </row>
     <row r="39" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>12</v>
@@ -3144,7 +3140,7 @@
         <v>16</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P39" s="3" t="s">
         <v>23</v>
@@ -3155,22 +3151,22 @@
     </row>
     <row r="40" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>12</v>
@@ -3188,7 +3184,7 @@
         <v>16</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>23</v>
@@ -3199,22 +3195,22 @@
     </row>
     <row r="41" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>12</v>
@@ -3232,7 +3228,7 @@
         <v>16</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>23</v>
@@ -3243,22 +3239,22 @@
     </row>
     <row r="42" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F42" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>12</v>
@@ -3276,7 +3272,7 @@
         <v>16</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>23</v>
@@ -3287,22 +3283,22 @@
     </row>
     <row r="43" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>12</v>
@@ -3320,7 +3316,7 @@
         <v>16</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>23</v>
@@ -3331,25 +3327,25 @@
     </row>
     <row r="44" spans="1:17" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>12</v>
@@ -3367,7 +3363,7 @@
         <v>16</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>23</v>
@@ -3378,22 +3374,22 @@
     </row>
     <row r="45" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>12</v>
@@ -3411,7 +3407,7 @@
         <v>16</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>23</v>
@@ -3422,22 +3418,22 @@
     </row>
     <row r="46" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F46" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>12</v>
@@ -3455,7 +3451,7 @@
         <v>16</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>23</v>
@@ -3466,22 +3462,22 @@
     </row>
     <row r="47" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>12</v>
@@ -3499,7 +3495,7 @@
         <v>16</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>23</v>
@@ -3510,25 +3506,25 @@
     </row>
     <row r="48" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>12</v>
@@ -3546,7 +3542,7 @@
         <v>16</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>23</v>
@@ -3557,25 +3553,25 @@
     </row>
     <row r="49" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E49" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="G49" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>12</v>
@@ -3593,7 +3589,7 @@
         <v>16</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>23</v>
@@ -3604,25 +3600,25 @@
     </row>
     <row r="50" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E50" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="F50" s="25" t="s">
-        <v>133</v>
-      </c>
       <c r="G50" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>12</v>
@@ -3640,7 +3636,7 @@
         <v>16</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
@@ -3653,26 +3649,26 @@
     </row>
     <row r="51" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="D51" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G51" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="G51" s="24" t="s">
-        <v>137</v>
-      </c>
       <c r="H51" s="5" t="s">
         <v>12</v>
       </c>
@@ -3689,7 +3685,7 @@
         <v>16</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P51" s="3" t="s">
         <v>23</v>
@@ -3700,25 +3696,25 @@
     </row>
     <row r="52" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>77</v>
-      </c>
       <c r="D52" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>12</v>
@@ -3736,7 +3732,7 @@
         <v>16</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>23</v>
@@ -3747,25 +3743,25 @@
     </row>
     <row r="53" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>77</v>
-      </c>
       <c r="D53" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>12</v>
@@ -3783,7 +3779,7 @@
         <v>16</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P53" s="3" t="s">
         <v>23</v>
@@ -3794,25 +3790,25 @@
     </row>
     <row r="54" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>12</v>
@@ -3830,7 +3826,7 @@
         <v>16</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>23</v>
@@ -3841,25 +3837,25 @@
     </row>
     <row r="55" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>12</v>
@@ -3877,7 +3873,7 @@
         <v>16</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P55" s="3" t="s">
         <v>23</v>
@@ -3888,25 +3884,25 @@
     </row>
     <row r="56" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>12</v>
@@ -3924,7 +3920,7 @@
         <v>16</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P56" s="3" t="s">
         <v>23</v>
@@ -3935,25 +3931,25 @@
     </row>
     <row r="57" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>12</v>
@@ -3971,7 +3967,7 @@
         <v>16</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>23</v>
@@ -3982,25 +3978,25 @@
     </row>
     <row r="58" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>12</v>
@@ -4018,7 +4014,7 @@
         <v>16</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>23</v>
@@ -4029,25 +4025,25 @@
     </row>
     <row r="59" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>12</v>
@@ -4065,7 +4061,7 @@
         <v>16</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>23</v>
@@ -4076,25 +4072,25 @@
     </row>
     <row r="60" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F60" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>12</v>
@@ -4112,7 +4108,7 @@
         <v>16</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>23</v>
@@ -4123,25 +4119,25 @@
     </row>
     <row r="61" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F61" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>12</v>
@@ -4159,7 +4155,7 @@
         <v>16</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P61" s="3" t="s">
         <v>23</v>
@@ -4170,25 +4166,25 @@
     </row>
     <row r="62" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F62" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>12</v>
@@ -4206,7 +4202,7 @@
         <v>16</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>23</v>
@@ -4217,25 +4213,25 @@
     </row>
     <row r="63" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G63" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>12</v>
@@ -4253,7 +4249,7 @@
         <v>16</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>23</v>
@@ -4264,25 +4260,25 @@
     </row>
     <row r="64" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F64" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G64" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>12</v>
@@ -4300,7 +4296,7 @@
         <v>16</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P64" s="3" t="s">
         <v>23</v>
@@ -4311,25 +4307,25 @@
     </row>
     <row r="65" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F65" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G65" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>12</v>
@@ -4347,7 +4343,7 @@
         <v>16</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P65" s="3" t="s">
         <v>23</v>
@@ -4358,25 +4354,25 @@
     </row>
     <row r="66" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G66" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>12</v>
@@ -4394,7 +4390,7 @@
         <v>16</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>23</v>
@@ -4405,25 +4401,25 @@
     </row>
     <row r="67" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F67" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>12</v>
@@ -4441,7 +4437,7 @@
         <v>16</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P67" s="3" t="s">
         <v>23</v>
@@ -4452,25 +4448,25 @@
     </row>
     <row r="68" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F68" s="28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G68" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>12</v>
@@ -4488,7 +4484,7 @@
         <v>16</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P68" s="3" t="s">
         <v>23</v>
@@ -4499,22 +4495,22 @@
     </row>
     <row r="69" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F69" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>12</v>
@@ -4532,7 +4528,7 @@
         <v>16</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P69" s="3" t="s">
         <v>23</v>
@@ -4543,22 +4539,22 @@
     </row>
     <row r="70" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F70" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>12</v>
@@ -4576,7 +4572,7 @@
         <v>16</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P70" s="3" t="s">
         <v>23</v>
@@ -4587,22 +4583,22 @@
     </row>
     <row r="71" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F71" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>12</v>
@@ -4620,7 +4616,7 @@
         <v>16</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P71" s="3" t="s">
         <v>23</v>
@@ -4631,22 +4627,22 @@
     </row>
     <row r="72" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F72" s="28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>12</v>
@@ -4664,7 +4660,7 @@
         <v>16</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>23</v>
@@ -4675,25 +4671,25 @@
     </row>
     <row r="73" spans="1:17" ht="129.6" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F73" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>12</v>
@@ -4711,7 +4707,7 @@
         <v>16</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P73" s="3" t="s">
         <v>23</v>
@@ -4722,22 +4718,22 @@
     </row>
     <row r="74" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>12</v>
@@ -4755,7 +4751,7 @@
         <v>16</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P74" s="3" t="s">
         <v>23</v>
@@ -4766,22 +4762,22 @@
     </row>
     <row r="75" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>12</v>
@@ -4799,7 +4795,7 @@
         <v>16</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P75" s="3" t="s">
         <v>23</v>
@@ -4810,22 +4806,22 @@
     </row>
     <row r="76" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>12</v>
@@ -4843,7 +4839,7 @@
         <v>16</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>23</v>
@@ -4854,25 +4850,25 @@
     </row>
     <row r="77" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>12</v>
@@ -4890,7 +4886,7 @@
         <v>16</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P77" s="3" t="s">
         <v>23</v>
@@ -4901,25 +4897,25 @@
     </row>
     <row r="78" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E78" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F78" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F78" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="G78" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>12</v>
@@ -4937,7 +4933,7 @@
         <v>16</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P78" s="3" t="s">
         <v>23</v>
@@ -4948,25 +4944,25 @@
     </row>
     <row r="79" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E79" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F79" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="F79" s="25" t="s">
-        <v>133</v>
-      </c>
       <c r="G79" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H79" s="10" t="s">
         <v>12</v>
@@ -4984,7 +4980,7 @@
         <v>16</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N79" s="9"/>
       <c r="O79" s="9"/>
@@ -4997,25 +4993,25 @@
     </row>
     <row r="80" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G80" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>12</v>
@@ -5033,7 +5029,7 @@
         <v>16</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P80" s="3" t="s">
         <v>23</v>
@@ -5044,25 +5040,25 @@
     </row>
     <row r="81" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>12</v>
@@ -5080,7 +5076,7 @@
         <v>16</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>23</v>
@@ -5091,25 +5087,25 @@
     </row>
     <row r="82" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F82" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>12</v>
@@ -5127,7 +5123,7 @@
         <v>16</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P82" s="3" t="s">
         <v>23</v>
@@ -5138,25 +5134,25 @@
     </row>
     <row r="83" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>12</v>
@@ -5174,7 +5170,7 @@
         <v>16</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>23</v>
@@ -5185,25 +5181,25 @@
     </row>
     <row r="84" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F84" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>12</v>
@@ -5221,7 +5217,7 @@
         <v>16</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P84" s="3" t="s">
         <v>23</v>
@@ -5232,25 +5228,25 @@
     </row>
     <row r="85" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>12</v>
@@ -5268,7 +5264,7 @@
         <v>16</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P85" s="3" t="s">
         <v>23</v>
@@ -5279,25 +5275,25 @@
     </row>
     <row r="86" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>12</v>
@@ -5315,7 +5311,7 @@
         <v>16</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P86" s="3" t="s">
         <v>23</v>
@@ -5326,25 +5322,25 @@
     </row>
     <row r="87" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>12</v>
@@ -5362,7 +5358,7 @@
         <v>16</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P87" s="3" t="s">
         <v>23</v>
@@ -5373,25 +5369,25 @@
     </row>
     <row r="88" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>12</v>
@@ -5409,7 +5405,7 @@
         <v>16</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P88" s="3" t="s">
         <v>23</v>
@@ -5420,25 +5416,25 @@
     </row>
     <row r="89" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E89" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F89" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>12</v>
@@ -5456,7 +5452,7 @@
         <v>16</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>23</v>
@@ -5467,25 +5463,25 @@
     </row>
     <row r="90" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E90" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F90" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>12</v>
@@ -5503,7 +5499,7 @@
         <v>16</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P90" s="3" t="s">
         <v>23</v>
@@ -5514,25 +5510,25 @@
     </row>
     <row r="91" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E91" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F91" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>12</v>
@@ -5550,7 +5546,7 @@
         <v>16</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>23</v>
@@ -5561,25 +5557,25 @@
     </row>
     <row r="92" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F92" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G92" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>12</v>
@@ -5597,7 +5593,7 @@
         <v>16</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P92" s="3" t="s">
         <v>23</v>
@@ -5608,25 +5604,25 @@
     </row>
     <row r="93" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E93" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F93" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G93" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>12</v>
@@ -5644,7 +5640,7 @@
         <v>16</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P93" s="3" t="s">
         <v>23</v>
@@ -5655,25 +5651,25 @@
     </row>
     <row r="94" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F94" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G94" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>12</v>
@@ -5691,7 +5687,7 @@
         <v>16</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>23</v>
@@ -5702,25 +5698,25 @@
     </row>
     <row r="95" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E95" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F95" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G95" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>12</v>
@@ -5738,7 +5734,7 @@
         <v>16</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P95" s="3" t="s">
         <v>23</v>
@@ -5749,25 +5745,25 @@
     </row>
     <row r="96" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E96" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F96" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G96" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>12</v>
@@ -5785,7 +5781,7 @@
         <v>16</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P96" s="3" t="s">
         <v>23</v>
@@ -5796,25 +5792,25 @@
     </row>
     <row r="97" spans="1:17" ht="97.2" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E97" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F97" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G97" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>12</v>
@@ -5832,7 +5828,7 @@
         <v>16</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P97" s="3" t="s">
         <v>23</v>
@@ -5843,22 +5839,22 @@
     </row>
     <row r="98" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F98" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>12</v>
@@ -5876,7 +5872,7 @@
         <v>16</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P98" s="3" t="s">
         <v>23</v>
@@ -5887,22 +5883,22 @@
     </row>
     <row r="99" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F99" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>12</v>
@@ -5920,7 +5916,7 @@
         <v>16</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P99" s="3" t="s">
         <v>23</v>
@@ -5931,22 +5927,22 @@
     </row>
     <row r="100" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F100" s="28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>12</v>
@@ -5964,7 +5960,7 @@
         <v>16</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>23</v>
@@ -5975,22 +5971,22 @@
     </row>
     <row r="101" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F101" s="28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>12</v>
@@ -6008,7 +6004,7 @@
         <v>16</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>23</v>
@@ -6019,25 +6015,25 @@
     </row>
     <row r="102" spans="1:17" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F102" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>12</v>
@@ -6055,7 +6051,7 @@
         <v>16</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>23</v>
@@ -6066,22 +6062,22 @@
     </row>
     <row r="103" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>12</v>
@@ -6099,7 +6095,7 @@
         <v>16</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P103" s="3" t="s">
         <v>23</v>
@@ -6110,22 +6106,22 @@
     </row>
     <row r="104" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H104" s="5" t="s">
         <v>12</v>
@@ -6143,7 +6139,7 @@
         <v>16</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P104" s="3" t="s">
         <v>23</v>
@@ -6154,22 +6150,22 @@
     </row>
     <row r="105" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>12</v>
@@ -6187,7 +6183,7 @@
         <v>16</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P105" s="3" t="s">
         <v>23</v>
@@ -6198,25 +6194,25 @@
     </row>
     <row r="106" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H106" s="5" t="s">
         <v>12</v>
@@ -6234,7 +6230,7 @@
         <v>16</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P106" s="3" t="s">
         <v>23</v>
@@ -6245,25 +6241,25 @@
     </row>
     <row r="107" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E107" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F107" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F107" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="G107" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>12</v>
@@ -6281,7 +6277,7 @@
         <v>16</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P107" s="3" t="s">
         <v>23</v>
@@ -6292,25 +6288,25 @@
     </row>
     <row r="108" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E108" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F108" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="F108" s="25" t="s">
-        <v>133</v>
-      </c>
       <c r="G108" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H108" s="10" t="s">
         <v>12</v>
@@ -6328,7 +6324,7 @@
         <v>16</v>
       </c>
       <c r="M108" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N108" s="9"/>
       <c r="O108" s="9"/>
@@ -6341,26 +6337,26 @@
     </row>
     <row r="109" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B109" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E109" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F109" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G109" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C109" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E109" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F109" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="G109" s="24" t="s">
-        <v>161</v>
-      </c>
       <c r="H109" s="5" t="s">
         <v>12</v>
       </c>
@@ -6377,7 +6373,7 @@
         <v>16</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P109" s="3" t="s">
         <v>23</v>
@@ -6388,25 +6384,25 @@
     </row>
     <row r="110" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F110" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H110" s="5" t="s">
         <v>12</v>
@@ -6424,7 +6420,7 @@
         <v>16</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P110" s="3" t="s">
         <v>23</v>
@@ -6435,25 +6431,25 @@
     </row>
     <row r="111" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F111" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>12</v>
@@ -6471,7 +6467,7 @@
         <v>16</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P111" s="3" t="s">
         <v>23</v>
@@ -6482,25 +6478,25 @@
     </row>
     <row r="112" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F112" s="23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>12</v>
@@ -6518,7 +6514,7 @@
         <v>16</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P112" s="3" t="s">
         <v>23</v>
@@ -6529,25 +6525,25 @@
     </row>
     <row r="113" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F113" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>12</v>
@@ -6565,7 +6561,7 @@
         <v>16</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P113" s="3" t="s">
         <v>23</v>
@@ -6576,25 +6572,25 @@
     </row>
     <row r="114" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H114" s="5" t="s">
         <v>12</v>
@@ -6612,7 +6608,7 @@
         <v>16</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P114" s="3" t="s">
         <v>23</v>
@@ -6623,25 +6619,25 @@
     </row>
     <row r="115" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H115" s="5" t="s">
         <v>12</v>
@@ -6659,7 +6655,7 @@
         <v>16</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P115" s="3" t="s">
         <v>23</v>
@@ -6670,25 +6666,25 @@
     </row>
     <row r="116" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H116" s="5" t="s">
         <v>12</v>
@@ -6706,7 +6702,7 @@
         <v>16</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P116" s="3" t="s">
         <v>23</v>
@@ -6717,25 +6713,25 @@
     </row>
     <row r="117" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>12</v>
@@ -6753,7 +6749,7 @@
         <v>16</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P117" s="3" t="s">
         <v>23</v>
@@ -6764,25 +6760,25 @@
     </row>
     <row r="118" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F118" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H118" s="5" t="s">
         <v>12</v>
@@ -6800,7 +6796,7 @@
         <v>16</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P118" s="3" t="s">
         <v>23</v>
@@ -6811,25 +6807,25 @@
     </row>
     <row r="119" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E119" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F119" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>12</v>
@@ -6847,7 +6843,7 @@
         <v>16</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P119" s="3" t="s">
         <v>23</v>
@@ -6858,25 +6854,25 @@
     </row>
     <row r="120" spans="1:17" ht="97.2" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E120" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F120" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G120" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H120" s="5" t="s">
         <v>12</v>
@@ -6894,7 +6890,7 @@
         <v>16</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P120" s="3" t="s">
         <v>23</v>
@@ -6905,25 +6901,25 @@
     </row>
     <row r="121" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F121" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>12</v>
@@ -6941,7 +6937,7 @@
         <v>16</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P121" s="3" t="s">
         <v>23</v>
@@ -6952,25 +6948,25 @@
     </row>
     <row r="122" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E122" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F122" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H122" s="5" t="s">
         <v>12</v>
@@ -6988,7 +6984,7 @@
         <v>16</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P122" s="3" t="s">
         <v>23</v>
@@ -6999,25 +6995,25 @@
     </row>
     <row r="123" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E123" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F123" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>12</v>
@@ -7035,7 +7031,7 @@
         <v>16</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P123" s="3" t="s">
         <v>23</v>
@@ -7046,25 +7042,25 @@
     </row>
     <row r="124" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E124" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F124" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>12</v>
@@ -7082,7 +7078,7 @@
         <v>16</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P124" s="3" t="s">
         <v>23</v>
@@ -7093,25 +7089,25 @@
     </row>
     <row r="125" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E125" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>12</v>
@@ -7129,7 +7125,7 @@
         <v>16</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P125" s="3" t="s">
         <v>23</v>
@@ -7140,25 +7136,25 @@
     </row>
     <row r="126" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E126" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F126" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G126" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>12</v>
@@ -7176,7 +7172,7 @@
         <v>16</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P126" s="3" t="s">
         <v>23</v>
@@ -7187,25 +7183,25 @@
     </row>
     <row r="127" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E127" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F127" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G127" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H127" s="5" t="s">
         <v>12</v>
@@ -7223,7 +7219,7 @@
         <v>16</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P127" s="3" t="s">
         <v>23</v>
@@ -7234,25 +7230,25 @@
     </row>
     <row r="128" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F128" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G128" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H128" s="5" t="s">
         <v>12</v>
@@ -7270,7 +7266,7 @@
         <v>16</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P128" s="3" t="s">
         <v>23</v>
@@ -7281,25 +7277,25 @@
     </row>
     <row r="129" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F129" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>12</v>
@@ -7317,7 +7313,7 @@
         <v>16</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P129" s="3" t="s">
         <v>23</v>
@@ -7328,25 +7324,25 @@
     </row>
     <row r="130" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F130" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G130" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H130" s="5" t="s">
         <v>12</v>
@@ -7364,7 +7360,7 @@
         <v>16</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P130" s="3" t="s">
         <v>23</v>
@@ -7375,25 +7371,25 @@
     </row>
     <row r="131" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F131" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G131" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H131" s="10" t="s">
         <v>12</v>
@@ -7411,7 +7407,7 @@
         <v>16</v>
       </c>
       <c r="M131" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N131" s="9"/>
       <c r="O131" s="9"/>
@@ -7424,26 +7420,26 @@
     </row>
     <row r="132" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B132" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D132" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E132" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F132" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G132" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C132" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D132" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E132" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F132" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="G132" s="24" t="s">
-        <v>183</v>
-      </c>
       <c r="H132" s="5" t="s">
         <v>12</v>
       </c>
@@ -7460,7 +7456,7 @@
         <v>16</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P132" s="3" t="s">
         <v>23</v>
@@ -7471,25 +7467,25 @@
     </row>
     <row r="133" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F133" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G133" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>12</v>
@@ -7507,7 +7503,7 @@
         <v>16</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P133" s="3" t="s">
         <v>23</v>
@@ -7518,25 +7514,25 @@
     </row>
     <row r="134" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F134" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G134" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H134" s="5" t="s">
         <v>12</v>
@@ -7554,7 +7550,7 @@
         <v>16</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P134" s="3" t="s">
         <v>23</v>
@@ -7565,25 +7561,25 @@
     </row>
     <row r="135" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F135" s="23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G135" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H135" s="5" t="s">
         <v>12</v>
@@ -7601,7 +7597,7 @@
         <v>16</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P135" s="3" t="s">
         <v>23</v>
@@ -7612,25 +7608,25 @@
     </row>
     <row r="136" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E136" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F136" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G136" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H136" s="5" t="s">
         <v>12</v>
@@ -7648,7 +7644,7 @@
         <v>16</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P136" s="3" t="s">
         <v>23</v>
@@ -7659,25 +7655,25 @@
     </row>
     <row r="137" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G137" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H137" s="5" t="s">
         <v>12</v>
@@ -7695,7 +7691,7 @@
         <v>16</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P137" s="3" t="s">
         <v>23</v>
@@ -7706,25 +7702,25 @@
     </row>
     <row r="138" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G138" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H138" s="5" t="s">
         <v>12</v>
@@ -7742,7 +7738,7 @@
         <v>16</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P138" s="3" t="s">
         <v>23</v>
@@ -7753,25 +7749,25 @@
     </row>
     <row r="139" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G139" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>12</v>
@@ -7789,7 +7785,7 @@
         <v>16</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P139" s="3" t="s">
         <v>23</v>
@@ -7800,25 +7796,25 @@
     </row>
     <row r="140" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G140" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H140" s="5" t="s">
         <v>12</v>
@@ -7836,7 +7832,7 @@
         <v>16</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P140" s="3" t="s">
         <v>23</v>
@@ -7847,25 +7843,25 @@
     </row>
     <row r="141" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E141" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F141" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G141" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H141" s="5" t="s">
         <v>12</v>
@@ -7883,7 +7879,7 @@
         <v>16</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P141" s="3" t="s">
         <v>23</v>
@@ -7894,25 +7890,25 @@
     </row>
     <row r="142" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E142" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F142" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G142" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H142" s="5" t="s">
         <v>12</v>
@@ -7930,7 +7926,7 @@
         <v>16</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P142" s="3" t="s">
         <v>23</v>
@@ -7941,25 +7937,25 @@
     </row>
     <row r="143" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E143" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F143" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>12</v>
@@ -7977,7 +7973,7 @@
         <v>16</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P143" s="3" t="s">
         <v>23</v>
@@ -7988,25 +7984,25 @@
     </row>
     <row r="144" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E144" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F144" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G144" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H144" s="5" t="s">
         <v>12</v>
@@ -8024,7 +8020,7 @@
         <v>16</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P144" s="3" t="s">
         <v>23</v>
@@ -8035,25 +8031,25 @@
     </row>
     <row r="145" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E145" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F145" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G145" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H145" s="5" t="s">
         <v>12</v>
@@ -8071,7 +8067,7 @@
         <v>16</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P145" s="3" t="s">
         <v>23</v>
@@ -8082,25 +8078,25 @@
     </row>
     <row r="146" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E146" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F146" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G146" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H146" s="5" t="s">
         <v>12</v>
@@ -8118,7 +8114,7 @@
         <v>16</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P146" s="3" t="s">
         <v>23</v>
@@ -8129,25 +8125,25 @@
     </row>
     <row r="147" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E147" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F147" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G147" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H147" s="5" t="s">
         <v>12</v>
@@ -8165,7 +8161,7 @@
         <v>16</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P147" s="3" t="s">
         <v>23</v>
@@ -8176,25 +8172,25 @@
     </row>
     <row r="148" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E148" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G148" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H148" s="5" t="s">
         <v>12</v>
@@ -8212,7 +8208,7 @@
         <v>16</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P148" s="3" t="s">
         <v>23</v>
@@ -8223,25 +8219,25 @@
     </row>
     <row r="149" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E149" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F149" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G149" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H149" s="5" t="s">
         <v>12</v>
@@ -8259,7 +8255,7 @@
         <v>16</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P149" s="3" t="s">
         <v>23</v>
@@ -8270,25 +8266,25 @@
     </row>
     <row r="150" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E150" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F150" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G150" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H150" s="5" t="s">
         <v>12</v>
@@ -8306,7 +8302,7 @@
         <v>16</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P150" s="3" t="s">
         <v>23</v>
@@ -8317,25 +8313,25 @@
     </row>
     <row r="151" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F151" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G151" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H151" s="5" t="s">
         <v>12</v>
@@ -8353,7 +8349,7 @@
         <v>16</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P151" s="3" t="s">
         <v>23</v>
@@ -8364,25 +8360,25 @@
     </row>
     <row r="152" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F152" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G152" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H152" s="5" t="s">
         <v>12</v>
@@ -8400,7 +8396,7 @@
         <v>16</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P152" s="3" t="s">
         <v>23</v>
@@ -8411,25 +8407,25 @@
     </row>
     <row r="153" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F153" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G153" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H153" s="5" t="s">
         <v>12</v>
@@ -8447,7 +8443,7 @@
         <v>16</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P153" s="3" t="s">
         <v>23</v>
@@ -8458,25 +8454,25 @@
     </row>
     <row r="154" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D154" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F154" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G154" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H154" s="10" t="s">
         <v>12</v>
@@ -8494,7 +8490,7 @@
         <v>16</v>
       </c>
       <c r="M154" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N154" s="9"/>
       <c r="O154" s="9"/>
